--- a/v5/other_exp/multiclass_new_dataset.xlsx
+++ b/v5/other_exp/multiclass_new_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\other_exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\analysis\analysis_data\standard_multiclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB63EF2-3E37-4D72-81F7-85CD34357769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A4C70-FCF7-4327-87E4-85DAC732C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="511">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -52,22 +52,22 @@
     <t>AutoInt</t>
   </si>
   <si>
-    <t>0.5920,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5799,(-2.05%:1)</t>
-  </si>
-  <si>
-    <t>0.5830,(-1.52%:2)</t>
-  </si>
-  <si>
-    <t>0.5846,(-1.25%:3)</t>
-  </si>
-  <si>
-    <t>0.5847,(-1.24%:4)</t>
-  </si>
-  <si>
-    <t>0.5857,(-1.06%:5)</t>
+    <t>0.5920,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5799,(-2.05%:6)</t>
+  </si>
+  <si>
+    <t>0.5830,(-1.52%:5)</t>
+  </si>
+  <si>
+    <t>0.5846,(-1.25%:4)</t>
+  </si>
+  <si>
+    <t>0.5847,(-1.24%:3)</t>
+  </si>
+  <si>
+    <t>0.5857,(-1.06%:2)</t>
   </si>
   <si>
     <t>-</t>
@@ -76,1056 +76,1452 @@
     <t>DCN2</t>
   </si>
   <si>
-    <t>0.5850,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.5833,(-0.29%:1)</t>
-  </si>
-  <si>
-    <t>0.5854,(0.07%:3)</t>
-  </si>
-  <si>
-    <t>0.5857,(0.13%:4)</t>
-  </si>
-  <si>
-    <t>0.5861,(0.19%:6)</t>
-  </si>
-  <si>
-    <t>0.5859,(0.15%:5)</t>
+    <t>0.5850,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.5833,(-0.29%:6)</t>
+  </si>
+  <si>
+    <t>0.5854,(0.07%:4)</t>
+  </si>
+  <si>
+    <t>0.5857,(0.13%:3)</t>
+  </si>
+  <si>
+    <t>0.5861,(0.19%:1)</t>
+  </si>
+  <si>
+    <t>0.5859,(0.15%:2)</t>
   </si>
   <si>
     <t>FTTransformer</t>
   </si>
   <si>
-    <t>0.5967,(0.00%:6)</t>
+    <t>0.5967,(0.00%:1)</t>
   </si>
   <si>
     <t>0.5948,(-0.32%:3)</t>
   </si>
   <si>
-    <t>0.5945,(-0.36%:2)</t>
-  </si>
-  <si>
-    <t>0.5943,(-0.40%:1)</t>
-  </si>
-  <si>
-    <t>0.5950,(-0.29%:5)</t>
+    <t>0.5945,(-0.36%:5)</t>
+  </si>
+  <si>
+    <t>0.5943,(-0.40%:6)</t>
+  </si>
+  <si>
+    <t>0.5950,(-0.29%:2)</t>
   </si>
   <si>
     <t>MLP</t>
   </si>
   <si>
-    <t>0.5886,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5872,(-0.25%:5)</t>
-  </si>
-  <si>
-    <t>0.5863,(-0.40%:1)</t>
+    <t>0.5886,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5872,(-0.25%:2)</t>
+  </si>
+  <si>
+    <t>0.5863,(-0.40%:6)</t>
   </si>
   <si>
     <t>0.5869,(-0.29%:3)</t>
   </si>
   <si>
-    <t>0.5863,(-0.39%:2)</t>
+    <t>0.5863,(-0.39%:5)</t>
   </si>
   <si>
     <t>ResNet</t>
   </si>
   <si>
-    <t>0.5906,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.5899,(-0.12%:1)</t>
-  </si>
-  <si>
-    <t>0.5932,(0.43%:6)</t>
-  </si>
-  <si>
-    <t>0.5930,(0.41%:5)</t>
-  </si>
-  <si>
-    <t>0.5916,(0.17%:3)</t>
-  </si>
-  <si>
-    <t>0.5917,(0.19%:4)</t>
+    <t>0.5906,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.5899,(-0.12%:6)</t>
+  </si>
+  <si>
+    <t>0.5932,(0.43%:1)</t>
+  </si>
+  <si>
+    <t>0.5930,(0.41%:2)</t>
+  </si>
+  <si>
+    <t>0.5916,(0.17%:4)</t>
+  </si>
+  <si>
+    <t>0.5917,(0.19%:3)</t>
   </si>
   <si>
     <t>SNN</t>
   </si>
   <si>
-    <t>0.5823,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5769,(-0.93%:1)</t>
-  </si>
-  <si>
-    <t>0.5822,(-0.02%:4)</t>
-  </si>
-  <si>
-    <t>0.5821,(-0.03%:3)</t>
-  </si>
-  <si>
-    <t>0.5810,(-0.22%:2)</t>
-  </si>
-  <si>
-    <t>0.5822,(-0.01%:5)</t>
+    <t>0.5823,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5769,(-0.93%:6)</t>
+  </si>
+  <si>
+    <t>0.5822,(-0.02%:3)</t>
+  </si>
+  <si>
+    <t>0.5821,(-0.03%:4)</t>
+  </si>
+  <si>
+    <t>0.5810,(-0.22%:5)</t>
+  </si>
+  <si>
+    <t>0.5822,(-0.01%:2)</t>
   </si>
   <si>
     <t>avg_rank</t>
   </si>
   <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>avg_percentage</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>-0.66%</t>
+  </si>
+  <si>
+    <t>-0.30%</t>
+  </si>
+  <si>
+    <t>-0.24%</t>
+  </si>
+  <si>
+    <t>-0.29%</t>
+  </si>
+  <si>
+    <t>-0.22%</t>
+  </si>
+  <si>
+    <t>GesturePhaseSegmentationProcessed:multiclass</t>
+  </si>
+  <si>
+    <t>0.5936,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.5870,(-1.11%:4)</t>
+  </si>
+  <si>
+    <t>0.5805,(-2.22%:5)</t>
+  </si>
+  <si>
+    <t>0.5764,(-2.90%:6)</t>
+  </si>
+  <si>
+    <t>0.6002,(1.11%:2)</t>
+  </si>
+  <si>
+    <t>0.6027,(1.53%:1)</t>
+  </si>
+  <si>
+    <t>0.5592,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.5607,(0.27%:5)</t>
+  </si>
+  <si>
+    <t>0.5703,(1.99%:2)</t>
+  </si>
+  <si>
+    <t>0.5683,(1.63%:4)</t>
+  </si>
+  <si>
+    <t>0.5709,(2.08%:1)</t>
+  </si>
+  <si>
+    <t>0.6164,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.6108,(-0.90%:6)</t>
+  </si>
+  <si>
+    <t>0.6194,(0.49%:4)</t>
+  </si>
+  <si>
+    <t>0.6220,(0.90%:2)</t>
+  </si>
+  <si>
+    <t>0.6225,(0.99%:1)</t>
+  </si>
+  <si>
+    <t>0.6204,(0.66%:3)</t>
+  </si>
+  <si>
+    <t>0.5779,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.5714,(-1.14%:6)</t>
+  </si>
+  <si>
+    <t>0.5774,(-0.09%:4)</t>
+  </si>
+  <si>
+    <t>0.5800,(0.35%:1)</t>
+  </si>
+  <si>
+    <t>0.5769,(-0.18%:5)</t>
+  </si>
+  <si>
+    <t>0.5784,(0.09%:2)</t>
+  </si>
+  <si>
+    <t>0.5870,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.5800,(-1.21%:6)</t>
+  </si>
+  <si>
+    <t>0.5855,(-0.26%:4)</t>
+  </si>
+  <si>
+    <t>0.5840,(-0.52%:5)</t>
+  </si>
+  <si>
+    <t>0.5891,(0.34%:2)</t>
+  </si>
+  <si>
+    <t>0.5921,(0.86%:1)</t>
+  </si>
+  <si>
+    <t>0.5709,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.5698,(-0.18%:6)</t>
+  </si>
+  <si>
+    <t>0.5764,(0.98%:2)</t>
+  </si>
+  <si>
+    <t>0.5714,(0.09%:4)</t>
+  </si>
+  <si>
+    <t>0.5769,(1.06%:1)</t>
+  </si>
+  <si>
+    <t>0.5734,(0.44%:3)</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>-0.71%</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>-0.01%</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>cmc:multiclass</t>
+  </si>
+  <si>
+    <t>0.5777,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.5912,(2.34%:1)</t>
+  </si>
+  <si>
+    <t>0.5676,(-1.75%:3)</t>
+  </si>
+  <si>
+    <t>0.5608,(-2.92%:4)</t>
+  </si>
+  <si>
+    <t>0.5473,(-5.26%:6)</t>
+  </si>
+  <si>
+    <t>0.5574,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.5676,(1.82%:4)</t>
+  </si>
+  <si>
+    <t>0.5743,(3.03%:1)</t>
+  </si>
+  <si>
+    <t>0.5642,(1.21%:5)</t>
+  </si>
+  <si>
+    <t>0.5845,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5574,(-4.62%:5)</t>
+  </si>
+  <si>
+    <t>0.5507,(-5.78%:6)</t>
+  </si>
+  <si>
+    <t>0.5642,(-3.47%:4)</t>
+  </si>
+  <si>
+    <t>0.5777,(-1.16%:2)</t>
+  </si>
+  <si>
+    <t>0.5405,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.5507,(1.87%:3)</t>
+  </si>
+  <si>
+    <t>0.5473,(1.25%:5)</t>
+  </si>
+  <si>
+    <t>0.5574,(3.12%:1)</t>
+  </si>
+  <si>
+    <t>0.5642,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5574,(-1.20%:3)</t>
+  </si>
+  <si>
+    <t>0.5372,(-4.79%:6)</t>
+  </si>
+  <si>
+    <t>0.5507,(-2.40%:4)</t>
+  </si>
+  <si>
+    <t>0.5203,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.5101,(-1.95%:6)</t>
+  </si>
+  <si>
+    <t>0.5372,(3.25%:1)</t>
+  </si>
+  <si>
+    <t>0.5236,(0.65%:4)</t>
+  </si>
+  <si>
+    <t>0.5304,(1.95%:3)</t>
+  </si>
+  <si>
+    <t>0.5338,(2.60%:2)</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>-0.09%</t>
+  </si>
+  <si>
+    <t>-0.20%</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>connect-4:multiclass</t>
+  </si>
+  <si>
+    <t>0.4864,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4521,(-7.05%:6)</t>
+  </si>
+  <si>
+    <t>0.4767,(-1.99%:2)</t>
+  </si>
+  <si>
+    <t>0.4753,(-2.28%:4)</t>
+  </si>
+  <si>
+    <t>0.4766,(-2.01%:3)</t>
+  </si>
+  <si>
+    <t>0.4721,(-2.93%:5)</t>
+  </si>
+  <si>
+    <t>0.4740,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4675,(-1.38%:6)</t>
+  </si>
+  <si>
+    <t>0.4685,(-1.16%:5)</t>
+  </si>
+  <si>
+    <t>0.4691,(-1.03%:2)</t>
+  </si>
+  <si>
+    <t>0.4689,(-1.07%:4)</t>
+  </si>
+  <si>
+    <t>0.4690,(-1.06%:3)</t>
+  </si>
+  <si>
+    <t>0.4606,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4599,(-0.15%:4)</t>
+  </si>
+  <si>
+    <t>0.4600,(-0.13%:3)</t>
+  </si>
+  <si>
+    <t>0.4598,(-0.17%:5)</t>
+  </si>
+  <si>
+    <t>0.4603,(-0.07%:2)</t>
+  </si>
+  <si>
+    <t>0.4597,(-0.20%:6)</t>
+  </si>
+  <si>
+    <t>0.4672,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4653,(-0.42%:6)</t>
+  </si>
+  <si>
+    <t>0.4655,(-0.37%:5)</t>
+  </si>
+  <si>
+    <t>0.4660,(-0.28%:4)</t>
+  </si>
+  <si>
+    <t>0.4665,(-0.17%:3)</t>
+  </si>
+  <si>
+    <t>0.4666,(-0.14%:2)</t>
+  </si>
+  <si>
+    <t>0.4580,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4488,(-1.99%:2)</t>
+  </si>
+  <si>
+    <t>0.4474,(-2.30%:5)</t>
+  </si>
+  <si>
+    <t>0.4475,(-2.28%:4)</t>
+  </si>
+  <si>
+    <t>0.4475,(-2.27%:3)</t>
+  </si>
+  <si>
+    <t>0.4474,(-2.31%:6)</t>
+  </si>
+  <si>
+    <t>0.5434,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.4760,(-12.40%:3)</t>
+  </si>
+  <si>
+    <t>0.4761,(-12.39%:2)</t>
+  </si>
+  <si>
+    <t>0.4743,(-12.72%:4)</t>
+  </si>
+  <si>
+    <t>0.4740,(-12.76%:6)</t>
+  </si>
+  <si>
+    <t>0.4740,(-12.76%:5)</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>-3.90%</t>
+  </si>
+  <si>
+    <t>-3.06%</t>
+  </si>
+  <si>
+    <t>-3.13%</t>
+  </si>
+  <si>
+    <t>-3.23%</t>
+  </si>
+  <si>
+    <t>eucalyptus:multiclass</t>
+  </si>
+  <si>
+    <t>0.6554,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.6689,(2.06%:5)</t>
+  </si>
+  <si>
+    <t>0.7095,(8.25%:1)</t>
+  </si>
+  <si>
+    <t>0.6959,(6.19%:2)</t>
+  </si>
+  <si>
+    <t>0.6757,(3.09%:4)</t>
+  </si>
+  <si>
+    <t>0.6824,(4.12%:3)</t>
+  </si>
+  <si>
+    <t>0.7027,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.6689,(-4.81%:5)</t>
+  </si>
+  <si>
+    <t>0.6824,(-2.88%:3)</t>
+  </si>
+  <si>
+    <t>0.6622,(-5.77%:6)</t>
+  </si>
+  <si>
+    <t>0.7095,(0.96%:1)</t>
+  </si>
+  <si>
+    <t>0.7500,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.7230,(-3.60%:6)</t>
+  </si>
+  <si>
+    <t>0.7297,(-2.70%:5)</t>
+  </si>
+  <si>
+    <t>0.7365,(-1.80%:4)</t>
+  </si>
+  <si>
+    <t>0.7568,(0.90%:1)</t>
+  </si>
+  <si>
+    <t>0.6757,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.6486,(-4.00%:4)</t>
+  </si>
+  <si>
+    <t>0.6216,(-8.00%:6)</t>
+  </si>
+  <si>
+    <t>0.6824,(1.00%:1)</t>
+  </si>
+  <si>
+    <t>0.6622,(-2.00%:3)</t>
+  </si>
+  <si>
+    <t>0.6284,(-7.00%:5)</t>
+  </si>
+  <si>
+    <t>0.6014,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.6216,(3.37%:5)</t>
+  </si>
+  <si>
+    <t>0.6284,(4.49%:3)</t>
+  </si>
+  <si>
+    <t>0.6351,(5.62%:1)</t>
+  </si>
+  <si>
+    <t>0.6689,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5743,(-14.14%:5)</t>
+  </si>
+  <si>
+    <t>0.5541,(-17.17%:6)</t>
+  </si>
+  <si>
+    <t>0.5811,(-13.13%:4)</t>
+  </si>
+  <si>
+    <t>0.6149,(-8.08%:2)</t>
+  </si>
+  <si>
+    <t>0.5946,(-11.11%:3)</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>-3.52%</t>
+  </si>
+  <si>
+    <t>-3.00%</t>
+  </si>
+  <si>
+    <t>-0.84%</t>
+  </si>
+  <si>
+    <t>-1.04%</t>
+  </si>
+  <si>
+    <t>-1.27%</t>
+  </si>
+  <si>
+    <t>first-order-theorem-proving:multiclass</t>
+  </si>
+  <si>
+    <t>0.5722,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5510,(-3.71%:5)</t>
+  </si>
+  <si>
+    <t>0.5567,(-2.71%:4)</t>
+  </si>
+  <si>
+    <t>0.5624,(-1.71%:3)</t>
+  </si>
+  <si>
+    <t>0.5641,(-1.43%:2)</t>
+  </si>
+  <si>
+    <t>0.5510,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.5404,(-1.93%:6)</t>
+  </si>
+  <si>
+    <t>0.5527,(0.30%:1)</t>
+  </si>
+  <si>
+    <t>0.5518,(0.15%:2)</t>
+  </si>
+  <si>
+    <t>0.5469,(-0.74%:4)</t>
+  </si>
+  <si>
+    <t>0.5453,(-1.04%:5)</t>
+  </si>
+  <si>
+    <t>0.5673,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5576,(-1.73%:2)</t>
+  </si>
+  <si>
+    <t>0.5551,(-2.16%:4)</t>
+  </si>
+  <si>
+    <t>0.5543,(-2.30%:6)</t>
+  </si>
+  <si>
+    <t>0.5559,(-2.01%:3)</t>
+  </si>
+  <si>
+    <t>0.5518,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5453,(-1.18%:5)</t>
+  </si>
+  <si>
+    <t>0.5412,(-1.92%:6)</t>
+  </si>
+  <si>
+    <t>0.5478,(-0.74%:3)</t>
+  </si>
+  <si>
+    <t>0.5535,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5371,(-2.95%:4)</t>
+  </si>
+  <si>
+    <t>0.5339,(-3.54%:5)</t>
+  </si>
+  <si>
+    <t>0.5322,(-3.83%:6)</t>
+  </si>
+  <si>
+    <t>0.5396,(-2.51%:2)</t>
+  </si>
+  <si>
+    <t>0.5151,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.5159,(0.16%:5)</t>
+  </si>
+  <si>
+    <t>0.5200,(0.95%:4)</t>
+  </si>
+  <si>
+    <t>0.5273,(2.38%:1)</t>
+  </si>
+  <si>
+    <t>0.5249,(1.90%:2)</t>
+  </si>
+  <si>
+    <t>0.5241,(1.74%:3)</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>-1.69%</t>
+  </si>
+  <si>
+    <t>-1.39%</t>
+  </si>
+  <si>
+    <t>-1.54%</t>
+  </si>
+  <si>
+    <t>-0.97%</t>
+  </si>
+  <si>
+    <t>-1.02%</t>
+  </si>
+  <si>
+    <t>jungle_chess_2pcs_endgame_panther_lion:multiclass</t>
+  </si>
+  <si>
+    <t>1.0000,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9989,(-0.11%:6)</t>
+  </si>
+  <si>
+    <t>0.9989,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>mfeat-factors:multiclass</t>
+  </si>
+  <si>
+    <t>0.9725,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9200,(-5.40%:6)</t>
+  </si>
+  <si>
+    <t>0.9625,(-1.03%:3)</t>
+  </si>
+  <si>
+    <t>0.9675,(-0.51%:2)</t>
+  </si>
+  <si>
+    <t>0.9650,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9350,(-3.11%:6)</t>
+  </si>
+  <si>
+    <t>0.9575,(-0.78%:3)</t>
+  </si>
+  <si>
+    <t>0.9550,(-1.04%:5)</t>
+  </si>
+  <si>
+    <t>0.9600,(-0.52%:2)</t>
+  </si>
+  <si>
+    <t>0.9850,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9750,(-1.02%:6)</t>
+  </si>
+  <si>
+    <t>0.9825,(-0.25%:4)</t>
+  </si>
+  <si>
+    <t>0.9750,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9625,(-1.28%:6)</t>
+  </si>
+  <si>
+    <t>0.9725,(-0.26%:2)</t>
+  </si>
+  <si>
+    <t>0.9700,(-0.51%:4)</t>
+  </si>
+  <si>
+    <t>0.9800,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9725,(-0.77%:6)</t>
+  </si>
+  <si>
+    <t>0.9675,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.9200,(-4.91%:6)</t>
+  </si>
+  <si>
+    <t>0.9725,(0.52%:1)</t>
+  </si>
+  <si>
+    <t>0.9650,(-0.26%:5)</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>-2.75%</t>
+  </si>
+  <si>
+    <t>-0.26%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>-0.34%</t>
+  </si>
+  <si>
+    <t>okcupid-stem:multiclass</t>
+  </si>
+  <si>
+    <t>0.7522,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7402,(-1.60%:2)</t>
+  </si>
+  <si>
+    <t>0.7373,(-1.99%:3)</t>
+  </si>
+  <si>
+    <t>0.7353,(-2.25%:4)</t>
+  </si>
+  <si>
+    <t>0.7299,(-2.97%:6)</t>
+  </si>
+  <si>
+    <t>0.7303,(-2.92%:5)</t>
+  </si>
+  <si>
+    <t>0.7536,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7511,(-0.34%:2)</t>
+  </si>
+  <si>
+    <t>0.7507,(-0.39%:3)</t>
+  </si>
+  <si>
+    <t>0.7506,(-0.40%:6)</t>
+  </si>
+  <si>
+    <t>0.7549,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7514,(-0.47%:5)</t>
+  </si>
+  <si>
+    <t>0.7517,(-0.42%:4)</t>
+  </si>
+  <si>
+    <t>0.7528,(-0.27%:2)</t>
+  </si>
+  <si>
+    <t>0.7522,(-0.35%:3)</t>
+  </si>
+  <si>
+    <t>0.7501,(-0.64%:6)</t>
+  </si>
+  <si>
+    <t>0.7527,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7505,(-0.30%:4)</t>
+  </si>
+  <si>
+    <t>0.7508,(-0.26%:2)</t>
+  </si>
+  <si>
+    <t>0.7501,(-0.35%:6)</t>
+  </si>
+  <si>
+    <t>0.7506,(-0.29%:3)</t>
+  </si>
+  <si>
+    <t>0.7504,(-0.31%:5)</t>
+  </si>
+  <si>
+    <t>0.7503,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7405,(-1.30%:4)</t>
+  </si>
+  <si>
+    <t>0.7435,(-0.91%:2)</t>
+  </si>
+  <si>
+    <t>0.7420,(-1.10%:3)</t>
+  </si>
+  <si>
+    <t>0.7397,(-1.40%:5)</t>
+  </si>
+  <si>
+    <t>0.7389,(-1.52%:6)</t>
+  </si>
+  <si>
+    <t>0.7528,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7461,(-0.89%:6)</t>
+  </si>
+  <si>
+    <t>0.7505,(-0.31%:3)</t>
+  </si>
+  <si>
+    <t>0.7496,(-0.43%:4)</t>
+  </si>
+  <si>
+    <t>0.7494,(-0.46%:5)</t>
+  </si>
+  <si>
+    <t>0.7516,(-0.17%:2)</t>
+  </si>
+  <si>
+    <t>-0.82%</t>
+  </si>
+  <si>
+    <t>-0.80%</t>
+  </si>
+  <si>
+    <t>-0.98%</t>
+  </si>
+  <si>
+    <t>-0.99%</t>
+  </si>
+  <si>
+    <t>segment:multiclass</t>
+  </si>
+  <si>
+    <t>0.9589,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.9459,(-1.35%:6)</t>
+  </si>
+  <si>
+    <t>0.9675,(0.90%:1)</t>
+  </si>
+  <si>
+    <t>0.9610,(0.23%:3)</t>
+  </si>
+  <si>
+    <t>0.9632,(0.45%:2)</t>
+  </si>
+  <si>
+    <t>0.9545,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>0.9502,(-0.45%:6)</t>
+  </si>
+  <si>
+    <t>0.9589,(0.45%:2)</t>
+  </si>
+  <si>
+    <t>0.9567,(0.23%:3)</t>
+  </si>
+  <si>
+    <t>0.9610,(0.68%:1)</t>
+  </si>
+  <si>
+    <t>0.9697,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9675,(-0.22%:2)</t>
+  </si>
+  <si>
+    <t>0.9632,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.9675,(0.45%:1)</t>
+  </si>
+  <si>
+    <t>0.9654,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.9675,(0.22%:1)</t>
+  </si>
+  <si>
+    <t>0.9632,(-0.22%:5)</t>
+  </si>
+  <si>
+    <t>0.9610,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>0.9069,(-5.63%:6)</t>
+  </si>
+  <si>
+    <t>0.9632,(0.23%:1)</t>
+  </si>
+  <si>
+    <t>0.9589,(-0.23%:5)</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>-1.20%</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>shuttle:multiclass</t>
+  </si>
+  <si>
+    <t>0.9984,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.9987,(0.03%:1)</t>
+  </si>
+  <si>
+    <t>0.9986,(0.02%:4)</t>
+  </si>
+  <si>
+    <t>0.9990,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.9989,(-0.01%:6)</t>
+  </si>
+  <si>
+    <t>0.9991,(0.02%:4)</t>
+  </si>
+  <si>
+    <t>0.9994,(0.04%:1)</t>
+  </si>
+  <si>
+    <t>0.9992,(0.03%:3)</t>
+  </si>
+  <si>
+    <t>0.9992,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9991,(-0.01%:6)</t>
+  </si>
+  <si>
+    <t>0.9994,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9990,(-0.04%:6)</t>
+  </si>
+  <si>
+    <t>0.9992,(-0.02%:2)</t>
+  </si>
+  <si>
+    <t>0.9991,(-0.03%:5)</t>
+  </si>
+  <si>
+    <t>0.9991,(-0.03%:4)</t>
+  </si>
+  <si>
+    <t>0.9987,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.9985,(-0.02%:6)</t>
+  </si>
+  <si>
+    <t>0.9992,(0.05%:1)</t>
+  </si>
+  <si>
+    <t>0.9989,(0.02%:3)</t>
+  </si>
+  <si>
+    <t>0.9985,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9977,(-0.09%:6)</t>
+  </si>
+  <si>
+    <t>0.9980,(-0.05%:5)</t>
+  </si>
+  <si>
+    <t>0.9984,(-0.01%:2)</t>
+  </si>
+  <si>
+    <t>0.9983,(-0.03%:4)</t>
+  </si>
+  <si>
+    <t>0.9984,(-0.02%:3)</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>-0.03%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>steel-plates-fault:multiclass</t>
+  </si>
+  <si>
+    <t>0.7558,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.7172,(-5.10%:6)</t>
+  </si>
+  <si>
+    <t>0.7584,(0.34%:1)</t>
+  </si>
+  <si>
+    <t>0.7532,(-0.34%:5)</t>
+  </si>
+  <si>
+    <t>0.7481,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.7249,(-3.09%:6)</t>
+  </si>
+  <si>
+    <t>0.7558,(1.03%:1)</t>
+  </si>
+  <si>
+    <t>0.7506,(0.34%:4)</t>
+  </si>
+  <si>
+    <t>0.7532,(0.69%:2)</t>
+  </si>
+  <si>
+    <t>0.7712,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.7815,(1.33%:5)</t>
+  </si>
+  <si>
+    <t>0.7892,(2.33%:1)</t>
+  </si>
+  <si>
+    <t>0.7866,(2.00%:3)</t>
+  </si>
+  <si>
+    <t>0.7506,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7301,(-2.74%:6)</t>
+  </si>
+  <si>
+    <t>0.7429,(-1.03%:5)</t>
+  </si>
+  <si>
+    <t>0.7455,(-0.68%:4)</t>
+  </si>
+  <si>
+    <t>0.7481,(-0.34%:3)</t>
+  </si>
+  <si>
+    <t>0.7326,(-2.06%:6)</t>
+  </si>
+  <si>
+    <t>0.7532,(0.69%:4)</t>
+  </si>
+  <si>
+    <t>0.7584,(1.37%:1)</t>
+  </si>
+  <si>
+    <t>0.7558,(1.03%:3)</t>
+  </si>
+  <si>
+    <t>0.7121,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.6787,(-4.69%:6)</t>
+  </si>
+  <si>
+    <t>0.7326,(2.89%:3)</t>
+  </si>
+  <si>
+    <t>0.7275,(2.17%:4)</t>
+  </si>
+  <si>
+    <t>0.7378,(3.61%:2)</t>
+  </si>
+  <si>
+    <t>0.7429,(4.33%:1)</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>-2.73%</t>
+  </si>
+  <si>
+    <t>1.04%</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>1.11%</t>
+  </si>
+  <si>
+    <t>1.51%</t>
+  </si>
+  <si>
+    <t>-0.55%</t>
+  </si>
+  <si>
+    <t>wine-quality-white:multiclass</t>
+  </si>
+  <si>
+    <t>0.5800,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>0.5790,(-0.18%:5)</t>
+  </si>
+  <si>
+    <t>0.5780,(-0.35%:6)</t>
+  </si>
+  <si>
+    <t>0.5882,(1.41%:2)</t>
+  </si>
+  <si>
+    <t>0.5851,(0.88%:3)</t>
+  </si>
+  <si>
+    <t>0.5943,(2.46%:1)</t>
+  </si>
+  <si>
+    <t>0.5780,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.5821,(0.71%:1)</t>
+  </si>
+  <si>
+    <t>0.5719,(-1.06%:5)</t>
+  </si>
+  <si>
+    <t>0.5688,(-1.59%:6)</t>
+  </si>
+  <si>
+    <t>0.5770,(-0.18%:4)</t>
+  </si>
+  <si>
+    <t>0.5678,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5494,(-3.23%:6)</t>
+  </si>
+  <si>
+    <t>0.5535,(-2.51%:4)</t>
+  </si>
+  <si>
+    <t>0.5505,(-3.05%:5)</t>
+  </si>
+  <si>
+    <t>0.5566,(-1.97%:3)</t>
+  </si>
+  <si>
+    <t>0.5576,(-1.80%:2)</t>
+  </si>
+  <si>
+    <t>0.5841,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5719,(-2.09%:6)</t>
+  </si>
+  <si>
+    <t>0.5790,(-0.87%:4)</t>
+  </si>
+  <si>
+    <t>0.5810,(-0.52%:3)</t>
+  </si>
+  <si>
+    <t>0.5821,(-0.35%:2)</t>
+  </si>
+  <si>
+    <t>0.5984,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.6024,(0.68%:1)</t>
+  </si>
+  <si>
+    <t>0.5973,(-0.17%:3)</t>
+  </si>
+  <si>
+    <t>0.5923,(-1.02%:5)</t>
+  </si>
+  <si>
+    <t>0.5933,(-0.85%:4)</t>
+  </si>
+  <si>
+    <t>0.5892,(-1.53%:6)</t>
+  </si>
+  <si>
+    <t>0.5729,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5566,(-2.85%:5)</t>
+  </si>
+  <si>
+    <t>0.5515,(-3.74%:6)</t>
+  </si>
+  <si>
+    <t>0.5586,(-2.49%:3)</t>
+  </si>
+  <si>
+    <t>0.5647,(-1.42%:2)</t>
+  </si>
+  <si>
     <t>4.67</t>
   </si>
   <si>
+    <t>-1.16%</t>
+  </si>
+  <si>
+    <t>-1.45%</t>
+  </si>
+  <si>
+    <t>-0.83%</t>
+  </si>
+  <si>
+    <t>-0.47%</t>
+  </si>
+  <si>
+    <t>yeast:multiclass</t>
+  </si>
+  <si>
+    <t>0.5940,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.6007,(1.13%:1)</t>
+  </si>
+  <si>
+    <t>0.5973,(0.56%:2)</t>
+  </si>
+  <si>
+    <t>0.5772,(-2.82%:6)</t>
+  </si>
+  <si>
+    <t>0.5839,(-1.69%:5)</t>
+  </si>
+  <si>
+    <t>0.5738,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>0.5537,(-3.51%:6)</t>
+  </si>
+  <si>
+    <t>0.5906,(2.92%:2)</t>
+  </si>
+  <si>
+    <t>0.5872,(2.34%:3)</t>
+  </si>
+  <si>
+    <t>0.5940,(3.51%:1)</t>
+  </si>
+  <si>
+    <t>0.6074,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.6007,(-1.10%:3)</t>
+  </si>
+  <si>
+    <t>0.5906,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.5537,(-6.25%:6)</t>
+  </si>
+  <si>
+    <t>0.5738,(-2.84%:2)</t>
+  </si>
+  <si>
+    <t>0.5705,(-3.41%:5)</t>
+  </si>
+  <si>
+    <t>0.5705,(-3.41%:2)</t>
+  </si>
+  <si>
+    <t>0.5503,(-6.82%:3)</t>
+  </si>
+  <si>
+    <t>0.5470,(-7.39%:4)</t>
+  </si>
+  <si>
+    <t>0.5436,(-7.95%:5)</t>
+  </si>
+  <si>
+    <t>0.4899,(-17.05%:6)</t>
+  </si>
+  <si>
+    <t>0.5772,(-2.27%:4)</t>
+  </si>
+  <si>
+    <t>0.5805,(-1.70%:3)</t>
+  </si>
+  <si>
+    <t>0.5839,(-1.14%:2)</t>
+  </si>
+  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>4.17</t>
-  </si>
-  <si>
-    <t>avg_percentage</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>-0.66%</t>
-  </si>
-  <si>
-    <t>-0.30%</t>
-  </si>
-  <si>
-    <t>-0.24%</t>
-  </si>
-  <si>
-    <t>-0.29%</t>
-  </si>
-  <si>
-    <t>-0.22%</t>
-  </si>
-  <si>
-    <t>GesturePhaseSegmentationProcessed:multiclass</t>
-  </si>
-  <si>
-    <t>0.5936,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.5870,(-1.11%:3)</t>
-  </si>
-  <si>
-    <t>0.5805,(-2.22%:2)</t>
-  </si>
-  <si>
-    <t>0.5764,(-2.90%:1)</t>
-  </si>
-  <si>
-    <t>0.6002,(1.11%:5)</t>
-  </si>
-  <si>
-    <t>0.6027,(1.53%:6)</t>
-  </si>
-  <si>
-    <t>0.5592,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.5607,(0.27%:2)</t>
-  </si>
-  <si>
-    <t>0.5703,(1.99%:4)</t>
-  </si>
-  <si>
-    <t>0.5683,(1.63%:3)</t>
-  </si>
-  <si>
-    <t>0.5709,(2.08%:6)</t>
-  </si>
-  <si>
-    <t>0.6164,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.6108,(-0.90%:1)</t>
-  </si>
-  <si>
-    <t>0.6194,(0.49%:3)</t>
-  </si>
-  <si>
-    <t>0.6220,(0.90%:5)</t>
-  </si>
-  <si>
-    <t>0.6225,(0.99%:6)</t>
-  </si>
-  <si>
-    <t>0.6204,(0.66%:4)</t>
-  </si>
-  <si>
-    <t>0.5779,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.5714,(-1.14%:1)</t>
-  </si>
-  <si>
-    <t>0.5774,(-0.09%:3)</t>
-  </si>
-  <si>
-    <t>0.5800,(0.35%:6)</t>
-  </si>
-  <si>
-    <t>0.5769,(-0.18%:2)</t>
-  </si>
-  <si>
-    <t>0.5784,(0.09%:5)</t>
-  </si>
-  <si>
-    <t>0.5870,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.5800,(-1.21%:1)</t>
-  </si>
-  <si>
-    <t>0.5855,(-0.26%:3)</t>
-  </si>
-  <si>
-    <t>0.5840,(-0.52%:2)</t>
-  </si>
-  <si>
-    <t>0.5891,(0.34%:5)</t>
-  </si>
-  <si>
-    <t>0.5921,(0.86%:6)</t>
-  </si>
-  <si>
-    <t>0.5709,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.5698,(-0.18%:1)</t>
-  </si>
-  <si>
-    <t>0.5764,(0.98%:5)</t>
-  </si>
-  <si>
-    <t>0.5714,(0.09%:3)</t>
-  </si>
-  <si>
-    <t>0.5769,(1.06%:6)</t>
-  </si>
-  <si>
-    <t>0.5734,(0.44%:4)</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>5.17</t>
-  </si>
-  <si>
-    <t>-0.71%</t>
-  </si>
-  <si>
-    <t>0.15%</t>
-  </si>
-  <si>
-    <t>-0.01%</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>0.94%</t>
-  </si>
-  <si>
-    <t>cmc:multiclass</t>
-  </si>
-  <si>
-    <t>0.5777,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>0.5912,(2.34%:6)</t>
-  </si>
-  <si>
-    <t>0.5676,(-1.75%:4)</t>
-  </si>
-  <si>
-    <t>0.5608,(-2.92%:2)</t>
-  </si>
-  <si>
-    <t>0.5473,(-5.26%:1)</t>
-  </si>
-  <si>
-    <t>0.5574,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.5676,(1.82%:3)</t>
-  </si>
-  <si>
-    <t>0.5743,(3.03%:4)</t>
-  </si>
-  <si>
-    <t>0.5642,(1.21%:2)</t>
-  </si>
-  <si>
-    <t>0.5845,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5574,(-4.62%:2)</t>
-  </si>
-  <si>
-    <t>0.5507,(-5.78%:1)</t>
-  </si>
-  <si>
-    <t>0.5642,(-3.47%:3)</t>
-  </si>
-  <si>
-    <t>0.5777,(-1.16%:4)</t>
-  </si>
-  <si>
-    <t>0.5405,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.5507,(1.87%:3)</t>
-  </si>
-  <si>
-    <t>0.5473,(1.25%:2)</t>
-  </si>
-  <si>
-    <t>0.5574,(3.12%:5)</t>
-  </si>
-  <si>
-    <t>0.5642,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>0.5574,(-1.20%:4)</t>
-  </si>
-  <si>
-    <t>0.5372,(-4.79%:1)</t>
-  </si>
-  <si>
-    <t>0.5507,(-2.40%:2)</t>
-  </si>
-  <si>
-    <t>0.5203,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.5101,(-1.95%:1)</t>
-  </si>
-  <si>
-    <t>0.5372,(3.25%:6)</t>
-  </si>
-  <si>
-    <t>0.5236,(0.65%:3)</t>
-  </si>
-  <si>
-    <t>0.5304,(1.95%:4)</t>
-  </si>
-  <si>
-    <t>0.5338,(2.60%:5)</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>-0.09%</t>
-  </si>
-  <si>
-    <t>-0.20%</t>
-  </si>
-  <si>
-    <t>-0.94%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>-0.31%</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>0.5722,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5510,(-3.71%:1)</t>
-  </si>
-  <si>
-    <t>0.5567,(-2.71%:3)</t>
-  </si>
-  <si>
-    <t>0.5624,(-1.71%:4)</t>
-  </si>
-  <si>
-    <t>0.5641,(-1.43%:5)</t>
-  </si>
-  <si>
-    <t>0.5510,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.5404,(-1.93%:1)</t>
-  </si>
-  <si>
-    <t>0.5527,(0.30%:6)</t>
-  </si>
-  <si>
-    <t>0.5518,(0.15%:5)</t>
-  </si>
-  <si>
-    <t>0.5469,(-0.74%:3)</t>
-  </si>
-  <si>
-    <t>0.5453,(-1.04%:2)</t>
-  </si>
-  <si>
-    <t>0.5673,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5576,(-1.73%:5)</t>
-  </si>
-  <si>
-    <t>0.5551,(-2.16%:2)</t>
-  </si>
-  <si>
-    <t>0.5543,(-2.30%:1)</t>
-  </si>
-  <si>
-    <t>0.5559,(-2.01%:4)</t>
-  </si>
-  <si>
-    <t>0.5518,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>0.5453,(-1.18%:2)</t>
-  </si>
-  <si>
-    <t>0.5412,(-1.92%:1)</t>
-  </si>
-  <si>
-    <t>0.5478,(-0.74%:3)</t>
-  </si>
-  <si>
-    <t>0.5535,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5371,(-2.95%:3)</t>
-  </si>
-  <si>
-    <t>0.5339,(-3.54%:2)</t>
-  </si>
-  <si>
-    <t>0.5322,(-3.83%:1)</t>
-  </si>
-  <si>
-    <t>0.5396,(-2.51%:4)</t>
-  </si>
-  <si>
-    <t>0.5151,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.5159,(0.16%:2)</t>
-  </si>
-  <si>
-    <t>0.5200,(0.95%:3)</t>
-  </si>
-  <si>
-    <t>0.5273,(2.38%:6)</t>
-  </si>
-  <si>
-    <t>0.5249,(1.90%:5)</t>
-  </si>
-  <si>
-    <t>0.5241,(1.74%:4)</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>-1.69%</t>
-  </si>
-  <si>
-    <t>-1.39%</t>
-  </si>
-  <si>
-    <t>-1.54%</t>
-  </si>
-  <si>
-    <t>-0.97%</t>
-  </si>
-  <si>
-    <t>-1.02%</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.9725,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.9200,(-5.40%:1)</t>
-  </si>
-  <si>
-    <t>0.9625,(-1.03%:2)</t>
-  </si>
-  <si>
-    <t>0.9675,(-0.51%:5)</t>
-  </si>
-  <si>
-    <t>0.9650,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.9350,(-3.11%:1)</t>
-  </si>
-  <si>
-    <t>0.9575,(-0.78%:3)</t>
-  </si>
-  <si>
-    <t>0.9550,(-1.04%:2)</t>
-  </si>
-  <si>
-    <t>0.9600,(-0.52%:5)</t>
-  </si>
-  <si>
-    <t>0.9850,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.9750,(-1.02%:1)</t>
-  </si>
-  <si>
-    <t>0.9825,(-0.25%:2)</t>
-  </si>
-  <si>
-    <t>0.9750,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.9625,(-1.28%:1)</t>
-  </si>
-  <si>
-    <t>0.9725,(-0.26%:4)</t>
-  </si>
-  <si>
-    <t>0.9700,(-0.51%:2)</t>
-  </si>
-  <si>
-    <t>0.9800,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.9725,(-0.77%:1)</t>
-  </si>
-  <si>
-    <t>0.9675,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>0.9200,(-4.91%:1)</t>
-  </si>
-  <si>
-    <t>0.9725,(0.52%:5)</t>
-  </si>
-  <si>
-    <t>0.9650,(-0.26%:2)</t>
-  </si>
-  <si>
-    <t>-2.75%</t>
-  </si>
-  <si>
-    <t>-0.26%</t>
-  </si>
-  <si>
-    <t>-0.43%</t>
-  </si>
-  <si>
-    <t>-0.34%</t>
-  </si>
-  <si>
-    <t>0.7522,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.7402,(-1.60%:5)</t>
-  </si>
-  <si>
-    <t>0.7373,(-1.99%:4)</t>
-  </si>
-  <si>
-    <t>0.7353,(-2.25%:3)</t>
-  </si>
-  <si>
-    <t>0.7299,(-2.97%:1)</t>
-  </si>
-  <si>
-    <t>0.7303,(-2.92%:2)</t>
-  </si>
-  <si>
-    <t>0.7536,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.7511,(-0.34%:5)</t>
-  </si>
-  <si>
-    <t>0.7507,(-0.39%:2)</t>
-  </si>
-  <si>
-    <t>0.7506,(-0.40%:1)</t>
-  </si>
-  <si>
-    <t>0.7549,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.7514,(-0.47%:2)</t>
-  </si>
-  <si>
-    <t>0.7517,(-0.42%:3)</t>
-  </si>
-  <si>
-    <t>0.7528,(-0.27%:5)</t>
-  </si>
-  <si>
-    <t>0.7522,(-0.35%:4)</t>
-  </si>
-  <si>
-    <t>0.7501,(-0.64%:1)</t>
-  </si>
-  <si>
-    <t>0.7527,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.7505,(-0.30%:3)</t>
-  </si>
-  <si>
-    <t>0.7508,(-0.26%:5)</t>
-  </si>
-  <si>
-    <t>0.7501,(-0.35%:1)</t>
-  </si>
-  <si>
-    <t>0.7506,(-0.29%:4)</t>
-  </si>
-  <si>
-    <t>0.7504,(-0.31%:2)</t>
-  </si>
-  <si>
-    <t>0.7503,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.7405,(-1.30%:3)</t>
-  </si>
-  <si>
-    <t>0.7435,(-0.91%:5)</t>
-  </si>
-  <si>
-    <t>0.7420,(-1.10%:4)</t>
-  </si>
-  <si>
-    <t>0.7397,(-1.40%:2)</t>
-  </si>
-  <si>
-    <t>0.7389,(-1.52%:1)</t>
-  </si>
-  <si>
-    <t>0.7528,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.7461,(-0.89%:1)</t>
-  </si>
-  <si>
-    <t>0.7505,(-0.31%:4)</t>
-  </si>
-  <si>
-    <t>0.7496,(-0.43%:3)</t>
-  </si>
-  <si>
-    <t>0.7494,(-0.46%:2)</t>
-  </si>
-  <si>
-    <t>0.7516,(-0.17%:5)</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>-0.82%</t>
-  </si>
-  <si>
-    <t>-0.80%</t>
-  </si>
-  <si>
-    <t>-0.98%</t>
-  </si>
-  <si>
-    <t>-0.99%</t>
-  </si>
-  <si>
-    <t>0.9589,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.9459,(-1.35%:1)</t>
-  </si>
-  <si>
-    <t>0.9675,(0.90%:6)</t>
-  </si>
-  <si>
-    <t>0.9610,(0.23%:3)</t>
-  </si>
-  <si>
-    <t>0.9632,(0.45%:5)</t>
-  </si>
-  <si>
-    <t>0.9545,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.9502,(-0.45%:1)</t>
-  </si>
-  <si>
-    <t>0.9589,(0.45%:5)</t>
-  </si>
-  <si>
-    <t>0.9567,(0.23%:4)</t>
-  </si>
-  <si>
-    <t>0.9610,(0.68%:6)</t>
-  </si>
-  <si>
-    <t>0.9697,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.9675,(-0.22%:1)</t>
-  </si>
-  <si>
-    <t>0.9632,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.9675,(0.45%:2)</t>
-  </si>
-  <si>
-    <t>0.9654,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>0.9675,(0.22%:6)</t>
-  </si>
-  <si>
-    <t>0.9632,(-0.22%:1)</t>
-  </si>
-  <si>
-    <t>0.9610,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>0.9069,(-5.63%:1)</t>
-  </si>
-  <si>
-    <t>0.9632,(0.23%:4)</t>
-  </si>
-  <si>
-    <t>0.9589,(-0.23%:2)</t>
-  </si>
-  <si>
-    <t>-1.20%</t>
-  </si>
-  <si>
-    <t>0.30%</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>0.9984,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.9987,(0.03%:4)</t>
-  </si>
-  <si>
-    <t>0.9986,(0.02%:3)</t>
-  </si>
-  <si>
-    <t>0.9990,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.9989,(-0.01%:1)</t>
-  </si>
-  <si>
-    <t>0.9991,(0.02%:3)</t>
-  </si>
-  <si>
-    <t>0.9994,(0.04%:5)</t>
-  </si>
-  <si>
-    <t>0.9992,(0.03%:4)</t>
-  </si>
-  <si>
-    <t>0.9992,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.9991,(-0.01%:1)</t>
-  </si>
-  <si>
-    <t>0.9994,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.9990,(-0.04%:1)</t>
-  </si>
-  <si>
-    <t>0.9992,(-0.02%:4)</t>
-  </si>
-  <si>
-    <t>0.9991,(-0.03%:2)</t>
-  </si>
-  <si>
-    <t>0.9991,(-0.03%:3)</t>
-  </si>
-  <si>
-    <t>0.9987,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.9985,(-0.02%:1)</t>
-  </si>
-  <si>
-    <t>0.9992,(0.05%:5)</t>
-  </si>
-  <si>
-    <t>0.9989,(0.02%:3)</t>
-  </si>
-  <si>
-    <t>0.9985,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.9977,(-0.09%:1)</t>
-  </si>
-  <si>
-    <t>0.9980,(-0.05%:2)</t>
-  </si>
-  <si>
-    <t>0.9984,(-0.01%:5)</t>
-  </si>
-  <si>
-    <t>0.9983,(-0.03%:3)</t>
-  </si>
-  <si>
-    <t>0.9984,(-0.02%:4)</t>
-  </si>
-  <si>
-    <t>-0.03%</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>0.5800,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>0.5790,(-0.18%:2)</t>
-  </si>
-  <si>
-    <t>0.5780,(-0.35%:1)</t>
-  </si>
-  <si>
-    <t>0.5882,(1.41%:5)</t>
-  </si>
-  <si>
-    <t>0.5851,(0.88%:4)</t>
-  </si>
-  <si>
-    <t>0.5943,(2.46%:6)</t>
-  </si>
-  <si>
-    <t>0.5780,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.5821,(0.71%:6)</t>
-  </si>
-  <si>
-    <t>0.5719,(-1.06%:2)</t>
-  </si>
-  <si>
-    <t>0.5688,(-1.59%:1)</t>
-  </si>
-  <si>
-    <t>0.5770,(-0.18%:3)</t>
-  </si>
-  <si>
-    <t>0.5678,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5494,(-3.23%:1)</t>
-  </si>
-  <si>
-    <t>0.5535,(-2.51%:3)</t>
-  </si>
-  <si>
-    <t>0.5505,(-3.05%:2)</t>
-  </si>
-  <si>
-    <t>0.5566,(-1.97%:4)</t>
-  </si>
-  <si>
-    <t>0.5576,(-1.80%:5)</t>
-  </si>
-  <si>
-    <t>0.5841,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5719,(-2.09%:1)</t>
-  </si>
-  <si>
-    <t>0.5790,(-0.87%:2)</t>
-  </si>
-  <si>
-    <t>0.5810,(-0.52%:4)</t>
-  </si>
-  <si>
-    <t>0.5821,(-0.35%:5)</t>
-  </si>
-  <si>
-    <t>0.5984,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>0.6024,(0.68%:6)</t>
-  </si>
-  <si>
-    <t>0.5973,(-0.17%:4)</t>
-  </si>
-  <si>
-    <t>0.5923,(-1.02%:2)</t>
-  </si>
-  <si>
-    <t>0.5933,(-0.85%:3)</t>
-  </si>
-  <si>
-    <t>0.5892,(-1.53%:1)</t>
-  </si>
-  <si>
-    <t>0.5729,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5566,(-2.85%:2)</t>
-  </si>
-  <si>
-    <t>0.5515,(-3.74%:1)</t>
-  </si>
-  <si>
-    <t>0.5586,(-2.49%:3)</t>
-  </si>
-  <si>
-    <t>0.5647,(-1.42%:5)</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>-1.16%</t>
-  </si>
-  <si>
-    <t>-1.45%</t>
-  </si>
-  <si>
-    <t>-1.27%</t>
-  </si>
-  <si>
-    <t>-0.83%</t>
-  </si>
-  <si>
-    <t>-0.47%</t>
-  </si>
-  <si>
-    <t>yeast:multiclass</t>
-  </si>
-  <si>
-    <t>0.5940,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>0.6007,(1.13%:6)</t>
-  </si>
-  <si>
-    <t>0.5973,(0.56%:5)</t>
-  </si>
-  <si>
-    <t>0.5772,(-2.82%:1)</t>
-  </si>
-  <si>
-    <t>0.5839,(-1.69%:2)</t>
-  </si>
-  <si>
-    <t>0.5738,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.5537,(-3.51%:1)</t>
-  </si>
-  <si>
-    <t>0.5906,(2.92%:5)</t>
-  </si>
-  <si>
-    <t>0.5872,(2.34%:3)</t>
-  </si>
-  <si>
-    <t>0.5940,(3.51%:6)</t>
-  </si>
-  <si>
-    <t>0.6074,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>0.6007,(-1.10%:1)</t>
-  </si>
-  <si>
-    <t>0.5906,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.5537,(-6.25%:1)</t>
-  </si>
-  <si>
-    <t>0.5738,(-2.84%:3)</t>
-  </si>
-  <si>
-    <t>0.5705,(-3.41%:2)</t>
-  </si>
-  <si>
-    <t>0.5705,(-3.41%:5)</t>
-  </si>
-  <si>
-    <t>0.5503,(-6.82%:4)</t>
-  </si>
-  <si>
-    <t>0.5470,(-7.39%:3)</t>
-  </si>
-  <si>
-    <t>0.5436,(-7.95%:1)</t>
-  </si>
-  <si>
-    <t>0.4899,(-17.05%:1)</t>
-  </si>
-  <si>
-    <t>0.5772,(-2.27%:2)</t>
-  </si>
-  <si>
-    <t>0.5805,(-1.70%:4)</t>
-  </si>
-  <si>
-    <t>0.5839,(-1.14%:5)</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
     <t>-5.03%</t>
   </si>
   <si>
@@ -1147,43 +1543,16 @@
     <t>total_avg_percentage</t>
   </si>
   <si>
-    <t>-1.18%</t>
-  </si>
-  <si>
-    <t>-0.45%</t>
-  </si>
-  <si>
-    <t>-0.54%</t>
-  </si>
-  <si>
-    <t>-0.35%</t>
-  </si>
-  <si>
-    <t>-0.33%</t>
-  </si>
-  <si>
-    <t>first-order-theorem-proving:multiclass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mfeat-factors:multiclass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>okcupid-stem:multiclass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>segment:multiclass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuttle:multiclass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wine-quality-white:multiclass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>-2.03%</t>
+  </si>
+  <si>
+    <t>-0.78%</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-0.52%</t>
   </si>
 </sst>
 </file>
@@ -1202,21 +1571,18 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1572,13 +1938,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="38.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1987,13 +2360,13 @@
         <v>102</v>
       </c>
       <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2007,45 +2380,45 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>107</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2056,22 +2429,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2082,22 +2455,22 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2108,22 +2481,22 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2134,22 +2507,22 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,22 +2533,22 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2189,19 +2562,19 @@
         <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2215,45 +2588,45 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
         <v>141</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>142</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>143</v>
-      </c>
-      <c r="G25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2264,22 +2637,22 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,22 +2663,22 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2316,9 +2689,9 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2331,7 +2704,7 @@
         <v>167</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,22 +2715,22 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2368,22 +2741,22 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>178</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,22 +2767,22 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2423,45 +2796,45 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>188</v>
+      <c r="D34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,22 +2845,22 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,22 +2871,22 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2524,22 +2897,22 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,22 +2923,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" t="s">
-        <v>202</v>
+        <v>211</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2576,22 +2949,22 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39" t="s">
-        <v>204</v>
+        <v>219</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,22 +2975,22 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2631,45 +3004,45 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2680,22 +3053,22 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2706,22 +3079,22 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2732,22 +3105,22 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>229</v>
+        <v>246</v>
+      </c>
+      <c r="D45" t="s">
+        <v>246</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,22 +3131,22 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,22 +3157,22 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2810,22 +3183,22 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2839,45 +3212,45 @@
         <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G49" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>255</v>
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,22 +3261,22 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
+      </c>
+      <c r="D51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" t="s">
+        <v>271</v>
+      </c>
+      <c r="G51" t="s">
+        <v>271</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2914,22 +3287,22 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" t="s">
+        <v>269</v>
+      </c>
+      <c r="H52" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2940,22 +3313,22 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" t="s">
+        <v>269</v>
+      </c>
+      <c r="H53" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,22 +3339,22 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="F54" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,22 +3365,22 @@
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G55" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>270</v>
+      <c r="D55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" t="s">
+        <v>271</v>
+      </c>
+      <c r="H55" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3018,22 +3391,22 @@
         <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" t="s">
-        <v>147</v>
-      </c>
-      <c r="H56" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,45 +3420,45 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" t="s">
         <v>272</v>
-      </c>
-      <c r="E57" t="s">
-        <v>273</v>
-      </c>
-      <c r="F57" t="s">
-        <v>274</v>
-      </c>
-      <c r="G57" t="s">
-        <v>275</v>
-      </c>
-      <c r="H57" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>384</v>
+        <v>273</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>278</v>
+      <c r="H58" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3096,22 +3469,22 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,22 +3495,22 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E60" t="s">
-        <v>284</v>
-      </c>
-      <c r="F60" t="s">
-        <v>284</v>
-      </c>
-      <c r="G60" t="s">
-        <v>284</v>
+      <c r="G60" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="H60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,13 +3530,13 @@
         <v>288</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3174,22 +3547,22 @@
         <v>36</v>
       </c>
       <c r="C62" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>294</v>
+      <c r="E62" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" t="s">
+        <v>290</v>
+      </c>
+      <c r="G62" t="s">
+        <v>290</v>
+      </c>
+      <c r="H62" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,22 +3573,22 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>300</v>
+      <c r="H63" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3226,22 +3599,22 @@
         <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="E64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
         <v>102</v>
       </c>
-      <c r="F64" t="s">
-        <v>103</v>
-      </c>
-      <c r="G64" t="s">
-        <v>179</v>
-      </c>
       <c r="H64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3255,24 +3628,24 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" t="s">
         <v>301</v>
-      </c>
-      <c r="E65" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" t="s">
-        <v>302</v>
-      </c>
-      <c r="G65" t="s">
-        <v>302</v>
-      </c>
-      <c r="H65" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -3286,13 +3659,13 @@
       <c r="E66" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3306,7 +3679,7 @@
       <c r="C67" t="s">
         <v>309</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -3315,11 +3688,11 @@
       <c r="F67" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G67" t="s">
-        <v>309</v>
+      <c r="G67" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3330,22 +3703,22 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3356,13 +3729,13 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>322</v>
@@ -3384,7 +3757,7 @@
       <c r="C70" t="s">
         <v>325</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -3420,10 +3793,10 @@
         <v>334</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3434,22 +3807,22 @@
         <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H72" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3466,42 +3839,42 @@
         <v>337</v>
       </c>
       <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="s">
         <v>338</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>339</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>340</v>
-      </c>
-      <c r="H73" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F74" t="s">
-        <v>343</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3512,22 +3885,22 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>351</v>
+      <c r="H75" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3538,21 +3911,21 @@
         <v>24</v>
       </c>
       <c r="C76" t="s">
+        <v>352</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H76" t="s">
+        <v>353</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3564,22 +3937,22 @@
         <v>30</v>
       </c>
       <c r="C77" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>358</v>
+      <c r="E77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3590,22 +3963,22 @@
         <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>355</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>356</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3616,22 +3989,22 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3642,22 +4015,22 @@
         <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="H80" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3671,45 +4044,45 @@
         <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E81" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F81" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H81" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
-      </c>
-      <c r="C82" s="4">
-        <v>3.5777777777777779</v>
-      </c>
-      <c r="D82" s="4">
-        <v>2.0666666666666669</v>
-      </c>
-      <c r="E82" s="4">
-        <v>2.822222222222222</v>
-      </c>
-      <c r="F82" s="4">
-        <v>2.588888888888889</v>
-      </c>
-      <c r="G82" s="4">
-        <v>2.8555555555555561</v>
-      </c>
-      <c r="H82" s="4">
-        <v>2.8666666666666671</v>
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>369</v>
+      </c>
+      <c r="D82" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3717,25 +4090,857 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C83" t="s">
+      <c r="F83" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84" t="s">
+        <v>377</v>
+      </c>
+      <c r="F84" t="s">
+        <v>377</v>
+      </c>
+      <c r="G84" t="s">
+        <v>377</v>
+      </c>
+      <c r="H84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>388</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>394</v>
+      </c>
+      <c r="D88" t="s">
+        <v>395</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>261</v>
+      </c>
+      <c r="G88" t="s">
+        <v>396</v>
+      </c>
+      <c r="H88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
         <v>58</v>
       </c>
-      <c r="D83" t="s">
-        <v>375</v>
-      </c>
-      <c r="E83" t="s">
-        <v>376</v>
-      </c>
-      <c r="F83" t="s">
-        <v>377</v>
-      </c>
-      <c r="G83" t="s">
-        <v>378</v>
-      </c>
-      <c r="H83" t="s">
-        <v>379</v>
+      <c r="D89" t="s">
+        <v>397</v>
+      </c>
+      <c r="E89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" t="s">
+        <v>398</v>
+      </c>
+      <c r="G89" t="s">
+        <v>398</v>
+      </c>
+      <c r="H89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>399</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F90" t="s">
+        <v>400</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>404</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" t="s">
+        <v>413</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H93" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>404</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>422</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>395</v>
+      </c>
+      <c r="E96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96" t="s">
+        <v>394</v>
+      </c>
+      <c r="H96" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
+        <v>429</v>
+      </c>
+      <c r="E97" t="s">
+        <v>430</v>
+      </c>
+      <c r="F97" t="s">
+        <v>431</v>
+      </c>
+      <c r="G97" t="s">
+        <v>432</v>
+      </c>
+      <c r="H97" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>436</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>442</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G99" t="s">
+        <v>442</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>447</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
+        <v>464</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" t="s">
+        <v>469</v>
+      </c>
+      <c r="F104" t="s">
+        <v>100</v>
+      </c>
+      <c r="G104" t="s">
+        <v>394</v>
+      </c>
+      <c r="H104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>470</v>
+      </c>
+      <c r="E105" t="s">
+        <v>471</v>
+      </c>
+      <c r="F105" t="s">
+        <v>228</v>
+      </c>
+      <c r="G105" t="s">
+        <v>472</v>
+      </c>
+      <c r="H105" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>475</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F106" t="s">
+        <v>475</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>480</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>485</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H108" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>487</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>487</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>487</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>499</v>
+      </c>
+      <c r="D112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" t="s">
+        <v>394</v>
+      </c>
+      <c r="G112" t="s">
+        <v>102</v>
+      </c>
+      <c r="H112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>500</v>
+      </c>
+      <c r="E113" t="s">
+        <v>501</v>
+      </c>
+      <c r="F113" t="s">
+        <v>502</v>
+      </c>
+      <c r="G113" t="s">
+        <v>503</v>
+      </c>
+      <c r="H113" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>505</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="D114" s="4">
+        <v>4.4888888888888889</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2.9444444444444451</v>
+      </c>
+      <c r="F114" s="4">
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="G114" s="4">
+        <v>2.8555555555555561</v>
+      </c>
+      <c r="H114" s="4">
+        <v>2.844444444444445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>506</v>
+      </c>
+      <c r="C115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" t="s">
+        <v>507</v>
+      </c>
+      <c r="E115" t="s">
+        <v>508</v>
+      </c>
+      <c r="F115" t="s">
+        <v>509</v>
+      </c>
+      <c r="G115" t="s">
+        <v>434</v>
+      </c>
+      <c r="H115" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
